--- a/Docs/JMeter.xlsx
+++ b/Docs/JMeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B3A6EC-0A59-4158-A5D3-24B6E163F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6F53D-F471-4A2F-BC5F-714FE3ED8150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2516515B-E9CC-4011-B9D8-E68458278FB5}"/>
   </bookViews>
@@ -36,21 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Usuários</t>
   </si>
   <si>
     <t>Latência Média (ms)</t>
   </si>
+  <si>
+    <t>Requisições</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.00000E+00"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +76,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,25 +113,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,6 +168,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Requisição x Latência</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -198,7 +232,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Latência X Usuário</c:v>
+            <c:v>Requisição x Latência</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -289,22 +323,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,22 +347,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>998.5</c:v>
+                  <c:v>12301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1531.2</c:v>
+                  <c:v>12602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3507.7</c:v>
+                  <c:v>12850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5522.1</c:v>
+                  <c:v>12955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7485.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8093</c:v>
+                  <c:v>13026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,7 +425,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Usuários</a:t>
+                  <a:t>Requisição</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -665,7 +693,572 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Usuário x Latência</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Usuário x Latência</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCB6-40BE-A032-88EBD8653FF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1295897151"/>
+        <c:axId val="1295896671"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1295897151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Usuários</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1295896671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1295896671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Latência (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1295897151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1221,20 +1814,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>61911</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436108</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>8505</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1254,6 +2350,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18315</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>564172</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593BCBBA-41A2-F474-C75B-094708A52655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1559,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFEC384-B5DF-4BDE-AC02-DB3341A4C7EC}">
-  <dimension ref="A2:O18"/>
+  <dimension ref="B3:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,382 +2703,171 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4">
-        <v>5</v>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>100</v>
       </c>
-      <c r="C4" s="5">
-        <f>SUM(D4:M4)/10</f>
-        <v>998.5</v>
+      <c r="C4" s="3">
+        <v>12301</v>
       </c>
-      <c r="D4" s="6">
-        <v>965</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1026</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1026</v>
-      </c>
-      <c r="G4" s="6">
-        <v>981</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1022</v>
-      </c>
-      <c r="I4" s="6">
-        <v>982</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1007</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1021</v>
-      </c>
-      <c r="L4" s="6">
-        <v>974</v>
-      </c>
-      <c r="M4" s="6">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <f>SUM(D5:M5)/10</f>
-        <v>1531.2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1501</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1493</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1565</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1550</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1550</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1570</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1509</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1476</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1505</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2">
         <v>30</v>
       </c>
-      <c r="C6" s="5">
-        <f>SUM(D6:M6)/10</f>
-        <v>3507.7</v>
+      <c r="J4" s="7">
+        <v>6716</v>
       </c>
-      <c r="D6" s="6">
-        <v>3458</v>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>200</v>
       </c>
-      <c r="E6" s="6">
-        <v>3519</v>
+      <c r="C5" s="3">
+        <v>12602</v>
       </c>
-      <c r="F6" s="6">
-        <v>3564</v>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2">
+        <v>40</v>
       </c>
-      <c r="G6" s="6">
-        <v>3538</v>
+      <c r="J5" s="3">
+        <v>9139</v>
       </c>
-      <c r="H6" s="6">
-        <v>3490</v>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>300</v>
       </c>
-      <c r="I6" s="6">
-        <v>3558</v>
+      <c r="C6" s="3">
+        <v>12850</v>
       </c>
-      <c r="J6" s="6">
-        <v>3561</v>
-      </c>
-      <c r="K6" s="6">
-        <v>3429</v>
-      </c>
-      <c r="L6" s="6">
-        <v>3527</v>
-      </c>
-      <c r="M6" s="6">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2">
         <v>50</v>
       </c>
-      <c r="C7" s="5">
-        <f>SUM(D7:M7)/10</f>
-        <v>5522.1</v>
+      <c r="J6" s="3">
+        <v>14913</v>
       </c>
-      <c r="D7" s="6">
-        <v>5622</v>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>400</v>
       </c>
-      <c r="E7" s="6">
-        <v>5975</v>
+      <c r="C7" s="3">
+        <v>12955</v>
       </c>
-      <c r="F7" s="6">
-        <v>5994</v>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2">
+        <v>60</v>
       </c>
-      <c r="G7" s="6">
-        <v>5607</v>
+      <c r="J7" s="3">
+        <v>16992</v>
       </c>
-      <c r="H7" s="6">
-        <v>5262</v>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>500</v>
       </c>
-      <c r="I7" s="6">
-        <v>6018</v>
+      <c r="C8" s="3">
+        <v>13026</v>
       </c>
-      <c r="J7" s="6">
-        <v>5364</v>
-      </c>
-      <c r="K7" s="6">
-        <v>5307</v>
-      </c>
-      <c r="L7" s="6">
-        <v>5056</v>
-      </c>
-      <c r="M7" s="6">
-        <v>5016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2">
         <v>70</v>
       </c>
-      <c r="C8" s="5">
-        <f>SUM(D8:M8)/10</f>
-        <v>7485.5</v>
+      <c r="J8" s="3">
+        <v>20043</v>
       </c>
-      <c r="D8" s="6">
-        <v>6577</v>
-      </c>
-      <c r="E8" s="6">
-        <v>7117</v>
-      </c>
-      <c r="F8" s="6">
-        <v>7512</v>
-      </c>
-      <c r="G8" s="6">
-        <v>6776</v>
-      </c>
-      <c r="H8" s="6">
-        <v>6993</v>
-      </c>
-      <c r="I8" s="6">
-        <v>7703</v>
-      </c>
-      <c r="J8" s="6">
-        <v>7286</v>
-      </c>
-      <c r="K8" s="6">
-        <v>7236</v>
-      </c>
-      <c r="L8" s="6">
-        <v>7715</v>
-      </c>
-      <c r="M8" s="6">
-        <v>9940</v>
-      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4">
-        <v>90</v>
-      </c>
-      <c r="C9" s="5">
-        <f>SUM(D9:M9)/10</f>
-        <v>8093</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8104</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8055</v>
-      </c>
-      <c r="F9" s="6">
-        <v>7965</v>
-      </c>
-      <c r="G9" s="6">
-        <v>8046</v>
-      </c>
-      <c r="H9" s="6">
-        <v>8210</v>
-      </c>
-      <c r="I9" s="6">
-        <v>8222</v>
-      </c>
-      <c r="J9" s="6">
-        <v>7787</v>
-      </c>
-      <c r="K9" s="6">
-        <v>8202</v>
-      </c>
-      <c r="L9" s="6">
-        <v>8474</v>
-      </c>
-      <c r="M9" s="6">
-        <v>7865</v>
-      </c>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
